--- a/examples/build/excel/planning.model.xlsx
+++ b/examples/build/excel/planning.model.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,19 +427,19 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>uuid</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>project__name</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>project__url</t>
@@ -463,6 +463,11 @@
       <c r="H1" t="inlineStr">
         <is>
           <t>project__email</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>project__roadmaps</t>
         </is>
       </c>
     </row>
@@ -477,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,15 +493,20 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>uuid</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
       <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>roadmap__projects</t>
         </is>
@@ -513,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,19 +534,19 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>uuid</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>project__name</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>project__url</t>
@@ -560,6 +570,11 @@
       <c r="H1" t="inlineStr">
         <is>
           <t>project__email</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>project__roadmaps</t>
         </is>
       </c>
     </row>
@@ -574,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,15 +600,20 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>uuid</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
       <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
         <is>
           <t>roadmap__projects</t>
         </is>
